--- a/data/案由清单.xlsx
+++ b/data/案由清单.xlsx
@@ -6088,8 +6088,8 @@
   <sheetPr/>
   <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6198,7 +6198,7 @@
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
